--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S2\data_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021DB320-1F74-47EA-8228-03A02A2055DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335E624-D7C5-5B44-B90E-14C9E1B13E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,19 +402,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -498,5 +507,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335E624-D7C5-5B44-B90E-14C9E1B13E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Project Name</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>Daniel,Emily</t>
+  </si>
+  <si>
+    <t>Bukit Merah Ridges</t>
+  </si>
+  <si>
+    <t>Bukit Panjang Heights</t>
+  </si>
+  <si>
+    <t>Nanyang Gardens</t>
+  </si>
+  <si>
+    <t>Bukit_Merah</t>
+  </si>
+  <si>
+    <t>Bukit_Panjang</t>
+  </si>
+  <si>
+    <t>Jurong_West</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Daniel, Emily, David</t>
   </si>
 </sst>
 </file>
@@ -400,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -420,7 +450,7 @@
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -466,43 +496,166 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>650000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45599</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45613</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>350000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>460000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45599</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45613</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>350000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>450000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I4" s="1">
         <v>45703</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J4" s="1">
         <v>45736</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>125000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>400000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45757</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45777</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335E624-D7C5-5B44-B90E-14C9E1B13E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F335E624-D7C5-5B44-B90E-14C9E1B13E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3841CAE-7BF0-4D75-8673-FF302AD41A25}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="1845" windowWidth="23895" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,24 +406,24 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A18629-8A53-42A0-A17E-ECC08327B6A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29055" yWindow="2205" windowWidth="27075" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,6 +165,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,27 +437,27 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -535,7 +539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -576,7 +580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -617,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A18629-8A53-42A0-A17E-ECC08327B6A4}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD37954E-B3D2-4CD3-A2F9-662EF2F27F1A}"/>
   <bookViews>
-    <workbookView xWindow="29055" yWindow="2205" windowWidth="27075" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Project Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Daniel, Emily, David</t>
+  </si>
+  <si>
+    <t>Visibilty</t>
+  </si>
+  <si>
+    <t>Project Id</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,214 +458,244 @@
     <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="31.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>400000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>650000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>45599</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>45613</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>350000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>460000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>45599</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>45613</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>350000</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>450000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>45703</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>45736</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>125000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>400000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>45757</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>45777</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD37954E-B3D2-4CD3-A2F9-662EF2F27F1A}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943851E2-DBD2-4830-9CFE-B8E1B624C3AD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="2625" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +444,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +515,7 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -561,7 +562,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -608,7 +609,7 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -655,7 +656,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="s">

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{C693CC14-B1F6-2A47-9E5F-038FD14A9902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943851E2-DBD2-4830-9CFE-B8E1B624C3AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="109_{6891E820-AE69-40B0-B404-C2B94F5127E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2625" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
     <t>Emily</t>
   </si>
   <si>
-    <t>Daniel, Emily, David</t>
-  </si>
-  <si>
     <t>Visibilty</t>
   </si>
   <si>
     <t>Project Id</t>
+  </si>
+  <si>
+    <t>Daniel, Emily</t>
   </si>
 </sst>
 </file>
@@ -153,10 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,10 +171,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +439,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -508,14 +503,14 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -562,7 +557,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -609,7 +604,7 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -656,7 +651,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -693,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>

--- a/src/main/resources/data/ProjectList.xlsx
+++ b/src/main/resources/data/ProjectList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="109_{6891E820-AE69-40B0-B404-C2B94F5127E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="109_{6891E820-AE69-40B0-B404-C2B94F5127E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41BE8AE8-262B-4C20-A18A-2592CD600FB9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3255" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Project Name</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Daniel, Emily</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
@@ -171,6 +174,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +466,7 @@
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +512,11 @@
       <c r="O1" t="s">
         <v>28</v>
       </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -552,8 +562,11 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>110074</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -599,8 +612,11 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
+      <c r="P3">
+        <v>240024</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -646,8 +662,11 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>440203</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -692,6 +711,9 @@
       </c>
       <c r="O5" t="b">
         <v>1</v>
+      </c>
+      <c r="P5">
+        <v>310064</v>
       </c>
     </row>
   </sheetData>
